--- a/Documentação/Sprint-2/Requisitos - ADS.xlsx
+++ b/Documentação/Sprint-2/Requisitos - ADS.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\guilherme.mingardi\Desktop\GitHub\Illumy\Documentação\Sprint-2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A8179474-AD7C-44AB-9034-F9A83FCF73BA}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A097D6B3-95B2-44CA-B487-A6021BF71944}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Histórico de Alterações" sheetId="4" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="273" uniqueCount="93">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="358" uniqueCount="114">
   <si>
     <t>Proposto</t>
   </si>
@@ -430,12 +430,75 @@
   <si>
     <t>Gerar alerta caso ultrapasse as faixas determinadas nos Kpis</t>
   </si>
+  <si>
+    <t>2.8</t>
+  </si>
+  <si>
+    <t>Inserir vídeo pitch na áera "sobre"</t>
+  </si>
+  <si>
+    <t>Inserir breve descrição sobre o vídeo pitch</t>
+  </si>
+  <si>
+    <t>2.10</t>
+  </si>
+  <si>
+    <t>Definir valores dos nossos planos na área de produtos</t>
+  </si>
+  <si>
+    <t>2.11</t>
+  </si>
+  <si>
+    <t>Inserir foto de todos os integrantes do grupo</t>
+  </si>
+  <si>
+    <t>2.12</t>
+  </si>
+  <si>
+    <t>Inserir link para redes sociais para todos os integrantes</t>
+  </si>
+  <si>
+    <t>2.13</t>
+  </si>
+  <si>
+    <t>Inserir dados de contato com a empresa na áera contato</t>
+  </si>
+  <si>
+    <t>1.2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ter opção de provisionar servidor pela dashboard </t>
+  </si>
+  <si>
+    <t>1.3</t>
+  </si>
+  <si>
+    <t>Deverá ter tela com visão geral de todos os servidores e com alertas visíveis</t>
+  </si>
+  <si>
+    <t>1.4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Deverá ter gráficos individúais mosntrando a situação dos sistemas monitorados na tela do servidor escolhido </t>
+  </si>
+  <si>
+    <t>1.5</t>
+  </si>
+  <si>
+    <t>Deverá ter tabela de logs para cada servidor cadastrado</t>
+  </si>
+  <si>
+    <t>1.6</t>
+  </si>
+  <si>
+    <t>Deverá ter área de cadastro de novos usuários</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="23">
+  <fonts count="24">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -580,6 +643,14 @@
       <name val="Exo 2"/>
       <family val="3"/>
     </font>
+    <font>
+      <b/>
+      <u/>
+      <sz val="11"/>
+      <color indexed="9"/>
+      <name val="Exo 2"/>
+      <family val="3"/>
+    </font>
   </fonts>
   <fills count="6">
     <fill>
@@ -613,7 +684,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="29">
+  <borders count="30">
     <border>
       <left/>
       <right/>
@@ -642,17 +713,6 @@
       </left>
       <right/>
       <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="thin">
         <color indexed="64"/>
       </top>
       <bottom/>
@@ -941,16 +1001,42 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
+      <left style="medium">
         <color indexed="64"/>
       </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
       <right style="thin">
         <color indexed="64"/>
       </right>
       <top style="thin">
         <color indexed="64"/>
       </top>
-      <bottom/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
       <diagonal/>
     </border>
   </borders>
@@ -958,7 +1044,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="82">
+  <cellXfs count="93">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -977,28 +1063,28 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="9" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="9" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="9" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
@@ -1015,170 +1101,203 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="4" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="4" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="4" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="4" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="4" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="4" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="4" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="14" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="9" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="4" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="4" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="4" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="4" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="9" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="21" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="14" fontId="21" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="15" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="15" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="4" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="15" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="15" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="4" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="4" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="22" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1189,6 +1308,87 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="22">
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color auto="1"/>
+        <name val="Exo 2"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="medium">
+          <color indexed="64"/>
+        </left>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color auto="1"/>
+        <name val="Exo 2"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color auto="1"/>
+        <name val="Exo 2"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color auto="1"/>
+        <name val="Exo 2"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
     <dxf>
       <font>
         <b val="0"/>
@@ -1430,88 +1630,7 @@
         <name val="Exo 2"/>
         <scheme val="none"/>
       </font>
-      <numFmt numFmtId="0" formatCode="General"/>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="10"/>
-        <color auto="1"/>
-        <name val="Exo 2"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="10"/>
-        <color auto="1"/>
-        <name val="Exo 2"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="10"/>
-        <color auto="1"/>
-        <name val="Exo 2"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="10"/>
-        <color auto="1"/>
-        <name val="Exo 2"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="medium">
-          <color indexed="64"/>
-        </left>
-        <right/>
-        <top/>
-        <bottom/>
-      </border>
     </dxf>
     <dxf>
       <font>
@@ -1621,15 +1740,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>200024</xdr:colOff>
-      <xdr:row>2</xdr:row>
-      <xdr:rowOff>142875</xdr:rowOff>
+      <xdr:colOff>205903</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>189912</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>2202391</xdr:colOff>
-      <xdr:row>5</xdr:row>
-      <xdr:rowOff>95250</xdr:rowOff>
+      <xdr:colOff>2208270</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>101130</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1659,8 +1778,8 @@
       </xdr:blipFill>
       <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="200024" y="533400"/>
-          <a:ext cx="2904067" cy="466725"/>
+          <a:off x="370533" y="366301"/>
+          <a:ext cx="2943107" cy="458023"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1683,27 +1802,27 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Tabela2" displayName="Tabela2" ref="D7:U86" totalsRowShown="0" headerRowDxfId="21" dataDxfId="19" headerRowBorderDxfId="20" tableBorderDxfId="18">
-  <autoFilter ref="D7:U86" xr:uid="{00000000-0009-0000-0100-000002000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Tabela2" displayName="Tabela2" ref="D7:U97" totalsRowShown="0" headerRowDxfId="21" dataDxfId="19" headerRowBorderDxfId="20" tableBorderDxfId="18">
+  <autoFilter ref="D7:U97" xr:uid="{00000000-0009-0000-0100-000002000000}"/>
   <tableColumns count="18">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Descrição do Requisito" dataDxfId="17"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Objetivo / Estratégia de Negócio" dataDxfId="16"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Prioridade" dataDxfId="15"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="Versão do Requisito" dataDxfId="14"/>
-    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="Tipo Requisito " dataDxfId="13"/>
-    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" name="Complexidade" dataDxfId="12"/>
-    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0000-000009000000}" name="Solicitante" dataDxfId="11"/>
-    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0000-00000A000000}" name="Responsável" dataDxfId="10"/>
-    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0000-00000B000000}" name="Validador" dataDxfId="9"/>
-    <tableColumn id="12" xr3:uid="{00000000-0010-0000-0000-00000C000000}" name="Critérios de Aceitação" dataDxfId="8"/>
-    <tableColumn id="13" xr3:uid="{00000000-0010-0000-0000-00000D000000}" name="Dependência Internas entre Requisitos  (rastreabilidade)" dataDxfId="7"/>
-    <tableColumn id="14" xr3:uid="{00000000-0010-0000-0000-00000E000000}" name="Dependências Externas entre Requisitos (Rastreabilidade)" dataDxfId="6"/>
-    <tableColumn id="15" xr3:uid="{00000000-0010-0000-0000-00000F000000}" name="Data da Criação" dataDxfId="5"/>
-    <tableColumn id="16" xr3:uid="{00000000-0010-0000-0000-000010000000}" name="Data Última Alteração" dataDxfId="4"/>
-    <tableColumn id="17" xr3:uid="{00000000-0010-0000-0000-000011000000}" name="Responsável pela última alteração" dataDxfId="3"/>
-    <tableColumn id="18" xr3:uid="{00000000-0010-0000-0000-000012000000}" name="Motivo Última Alteração" dataDxfId="2"/>
-    <tableColumn id="19" xr3:uid="{00000000-0010-0000-0000-000013000000}" name="Documentação de Apoio" dataDxfId="1"/>
-    <tableColumn id="20" xr3:uid="{00000000-0010-0000-0000-000014000000}" name="Situação do Requisito" dataDxfId="0"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Objetivo / Estratégia de Negócio" dataDxfId="0"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Prioridade" dataDxfId="16"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="Versão do Requisito" dataDxfId="15"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="Tipo Requisito " dataDxfId="14"/>
+    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" name="Complexidade" dataDxfId="1"/>
+    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0000-000009000000}" name="Solicitante" dataDxfId="13"/>
+    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0000-00000A000000}" name="Responsável" dataDxfId="12"/>
+    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0000-00000B000000}" name="Validador" dataDxfId="2"/>
+    <tableColumn id="12" xr3:uid="{00000000-0010-0000-0000-00000C000000}" name="Critérios de Aceitação" dataDxfId="3"/>
+    <tableColumn id="13" xr3:uid="{00000000-0010-0000-0000-00000D000000}" name="Dependência Internas entre Requisitos  (rastreabilidade)" dataDxfId="4"/>
+    <tableColumn id="14" xr3:uid="{00000000-0010-0000-0000-00000E000000}" name="Dependências Externas entre Requisitos (Rastreabilidade)" dataDxfId="11"/>
+    <tableColumn id="15" xr3:uid="{00000000-0010-0000-0000-00000F000000}" name="Data da Criação" dataDxfId="9"/>
+    <tableColumn id="16" xr3:uid="{00000000-0010-0000-0000-000010000000}" name="Data Última Alteração" dataDxfId="8"/>
+    <tableColumn id="17" xr3:uid="{00000000-0010-0000-0000-000011000000}" name="Responsável pela última alteração" dataDxfId="7"/>
+    <tableColumn id="18" xr3:uid="{00000000-0010-0000-0000-000012000000}" name="Motivo Última Alteração" dataDxfId="6"/>
+    <tableColumn id="19" xr3:uid="{00000000-0010-0000-0000-000013000000}" name="Documentação de Apoio" dataDxfId="5"/>
+    <tableColumn id="20" xr3:uid="{00000000-0010-0000-0000-000014000000}" name="Situação do Requisito" dataDxfId="10"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium8" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -2048,12 +2167,12 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:5" ht="12.75" customHeight="1">
-      <c r="B2" s="57" t="s">
+      <c r="B2" s="58" t="s">
         <v>17</v>
       </c>
-      <c r="C2" s="57"/>
-      <c r="D2" s="57"/>
-      <c r="E2" s="57"/>
+      <c r="C2" s="58"/>
+      <c r="D2" s="58"/>
+      <c r="E2" s="58"/>
     </row>
     <row r="4" spans="2:5" ht="27" customHeight="1">
       <c r="B4" s="6" t="s">
@@ -2150,13 +2269,13 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="B1:V87"/>
+  <dimension ref="B1:V98"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="108" zoomScaleNormal="80" workbookViewId="0">
-      <pane xSplit="4" ySplit="7" topLeftCell="E8" activePane="bottomRight" state="frozen"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <pane xSplit="4" ySplit="7" topLeftCell="E38" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A8" sqref="A8"/>
-      <selection pane="bottomRight" activeCell="D25" sqref="D25"/>
+      <selection pane="bottomRight" activeCell="D45" sqref="D45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.08984375" defaultRowHeight="13"/>
@@ -2207,22 +2326,22 @@
       <c r="U1" s="12"/>
     </row>
     <row r="2" spans="2:22" ht="16.5" customHeight="1" thickBot="1">
-      <c r="E2" s="67" t="s">
+      <c r="E2" s="68" t="s">
         <v>20</v>
       </c>
-      <c r="F2" s="68"/>
-      <c r="G2" s="68"/>
-      <c r="H2" s="68"/>
-      <c r="I2" s="68"/>
-      <c r="J2" s="68"/>
-      <c r="K2" s="68"/>
-      <c r="L2" s="68"/>
-      <c r="M2" s="68"/>
-      <c r="N2" s="69"/>
-      <c r="O2" s="73" t="s">
+      <c r="F2" s="69"/>
+      <c r="G2" s="69"/>
+      <c r="H2" s="69"/>
+      <c r="I2" s="69"/>
+      <c r="J2" s="69"/>
+      <c r="K2" s="69"/>
+      <c r="L2" s="69"/>
+      <c r="M2" s="69"/>
+      <c r="N2" s="70"/>
+      <c r="O2" s="84" t="s">
         <v>39</v>
       </c>
-      <c r="P2" s="73"/>
+      <c r="P2" s="85"/>
       <c r="Q2" s="7"/>
       <c r="R2" s="16"/>
       <c r="T2" s="17" t="s">
@@ -2231,40 +2350,40 @@
       <c r="U2" s="12"/>
     </row>
     <row r="3" spans="2:22" ht="14.25" customHeight="1" thickBot="1">
-      <c r="E3" s="70"/>
-      <c r="F3" s="71"/>
-      <c r="G3" s="71"/>
-      <c r="H3" s="71"/>
-      <c r="I3" s="71"/>
-      <c r="J3" s="71"/>
-      <c r="K3" s="71"/>
-      <c r="L3" s="71"/>
-      <c r="M3" s="71"/>
-      <c r="N3" s="72"/>
-      <c r="O3" s="74"/>
-      <c r="P3" s="75"/>
+      <c r="E3" s="71"/>
+      <c r="F3" s="72"/>
+      <c r="G3" s="72"/>
+      <c r="H3" s="72"/>
+      <c r="I3" s="72"/>
+      <c r="J3" s="72"/>
+      <c r="K3" s="72"/>
+      <c r="L3" s="72"/>
+      <c r="M3" s="72"/>
+      <c r="N3" s="73"/>
+      <c r="O3" s="82"/>
+      <c r="P3" s="83"/>
       <c r="Q3" s="7"/>
       <c r="S3" s="18"/>
       <c r="T3" s="18"/>
       <c r="U3" s="18"/>
     </row>
     <row r="4" spans="2:22" ht="12.75" customHeight="1" thickBot="1">
-      <c r="E4" s="58" t="s">
+      <c r="E4" s="59" t="s">
         <v>55</v>
       </c>
-      <c r="F4" s="59"/>
-      <c r="G4" s="59"/>
-      <c r="H4" s="59"/>
-      <c r="I4" s="59"/>
-      <c r="J4" s="59"/>
-      <c r="K4" s="59"/>
-      <c r="L4" s="59"/>
-      <c r="M4" s="59"/>
-      <c r="N4" s="60"/>
-      <c r="O4" s="76" t="s">
+      <c r="F4" s="60"/>
+      <c r="G4" s="60"/>
+      <c r="H4" s="60"/>
+      <c r="I4" s="60"/>
+      <c r="J4" s="60"/>
+      <c r="K4" s="60"/>
+      <c r="L4" s="60"/>
+      <c r="M4" s="60"/>
+      <c r="N4" s="61"/>
+      <c r="O4" s="80" t="s">
         <v>40</v>
       </c>
-      <c r="P4" s="76"/>
+      <c r="P4" s="81"/>
       <c r="Q4" s="12"/>
       <c r="S4" s="18"/>
       <c r="T4" s="19"/>
@@ -2273,37 +2392,37 @@
     <row r="5" spans="2:22" ht="13.5">
       <c r="B5" s="20"/>
       <c r="D5" s="20"/>
-      <c r="E5" s="61"/>
-      <c r="F5" s="62"/>
-      <c r="G5" s="62"/>
-      <c r="H5" s="62"/>
-      <c r="I5" s="62"/>
-      <c r="J5" s="62"/>
-      <c r="K5" s="62"/>
-      <c r="L5" s="62"/>
-      <c r="M5" s="62"/>
-      <c r="N5" s="63"/>
-      <c r="O5" s="77"/>
-      <c r="P5" s="78"/>
+      <c r="E5" s="62"/>
+      <c r="F5" s="63"/>
+      <c r="G5" s="63"/>
+      <c r="H5" s="63"/>
+      <c r="I5" s="63"/>
+      <c r="J5" s="63"/>
+      <c r="K5" s="63"/>
+      <c r="L5" s="63"/>
+      <c r="M5" s="63"/>
+      <c r="N5" s="64"/>
+      <c r="O5" s="74"/>
+      <c r="P5" s="75"/>
       <c r="Q5" s="20"/>
       <c r="S5" s="18"/>
       <c r="T5" s="19"/>
       <c r="U5" s="19"/>
     </row>
-    <row r="6" spans="2:22" s="21" customFormat="1" ht="49.5" customHeight="1" thickBot="1">
+    <row r="6" spans="2:22" s="21" customFormat="1" ht="20.5" customHeight="1" thickBot="1">
       <c r="C6" s="22"/>
-      <c r="E6" s="64"/>
-      <c r="F6" s="65"/>
-      <c r="G6" s="65"/>
-      <c r="H6" s="65"/>
-      <c r="I6" s="65"/>
-      <c r="J6" s="65"/>
-      <c r="K6" s="65"/>
-      <c r="L6" s="65"/>
-      <c r="M6" s="65"/>
-      <c r="N6" s="66"/>
-      <c r="O6" s="79"/>
-      <c r="P6" s="80"/>
+      <c r="E6" s="65"/>
+      <c r="F6" s="66"/>
+      <c r="G6" s="66"/>
+      <c r="H6" s="66"/>
+      <c r="I6" s="66"/>
+      <c r="J6" s="66"/>
+      <c r="K6" s="66"/>
+      <c r="L6" s="66"/>
+      <c r="M6" s="66"/>
+      <c r="N6" s="67"/>
+      <c r="O6" s="76"/>
+      <c r="P6" s="77"/>
       <c r="Q6" s="23"/>
       <c r="S6" s="24"/>
       <c r="T6" s="24"/>
@@ -2442,23 +2561,29 @@
       <c r="R9" s="36"/>
       <c r="S9" s="36"/>
       <c r="T9" s="34"/>
-      <c r="U9" s="36"/>
-    </row>
-    <row r="10" spans="2:22" s="39" customFormat="1" ht="22.5" customHeight="1">
-      <c r="B10" s="40">
-        <v>2</v>
-      </c>
-      <c r="C10" s="41"/>
-      <c r="D10" s="34" t="s">
-        <v>71</v>
+      <c r="U9" s="36" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="2:22" s="39" customFormat="1" ht="49.5" customHeight="1">
+      <c r="B10" s="40"/>
+      <c r="C10" s="41" t="s">
+        <v>104</v>
+      </c>
+      <c r="D10" s="38" t="s">
+        <v>105</v>
       </c>
       <c r="E10" s="35"/>
-      <c r="F10" s="36"/>
+      <c r="F10" s="36" t="s">
+        <v>50</v>
+      </c>
       <c r="G10" s="36" t="s">
         <v>10</v>
       </c>
-      <c r="H10" s="36"/>
-      <c r="I10" s="36"/>
+      <c r="H10" s="36" t="s">
+        <v>31</v>
+      </c>
+      <c r="I10" s="42"/>
       <c r="J10" s="36" t="s">
         <v>58</v>
       </c>
@@ -2473,26 +2598,24 @@
       <c r="Q10" s="36"/>
       <c r="R10" s="36"/>
       <c r="S10" s="36"/>
-      <c r="T10" s="38"/>
+      <c r="T10" s="34"/>
       <c r="U10" s="36" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="2:22" s="39" customFormat="1" ht="35.25" customHeight="1">
+    <row r="11" spans="2:22" s="39" customFormat="1" ht="49.5" customHeight="1">
       <c r="B11" s="40"/>
       <c r="C11" s="41" t="s">
-        <v>33</v>
+        <v>106</v>
       </c>
       <c r="D11" s="38" t="s">
-        <v>72</v>
+        <v>107</v>
       </c>
       <c r="E11" s="35"/>
       <c r="F11" s="36" t="s">
-        <v>51</v>
-      </c>
-      <c r="G11" s="36" t="s">
-        <v>10</v>
-      </c>
+        <v>50</v>
+      </c>
+      <c r="G11" s="36"/>
       <c r="H11" s="36" t="s">
         <v>31</v>
       </c>
@@ -2512,23 +2635,23 @@
       <c r="R11" s="36"/>
       <c r="S11" s="36"/>
       <c r="T11" s="34"/>
-      <c r="U11" s="36"/>
-    </row>
-    <row r="12" spans="2:22" s="39" customFormat="1" ht="42.75" customHeight="1">
+      <c r="U11" s="36" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="2:22" s="39" customFormat="1" ht="49.5" customHeight="1">
       <c r="B12" s="40"/>
       <c r="C12" s="41" t="s">
-        <v>34</v>
+        <v>108</v>
       </c>
       <c r="D12" s="38" t="s">
-        <v>41</v>
+        <v>109</v>
       </c>
       <c r="E12" s="35"/>
       <c r="F12" s="36" t="s">
-        <v>52</v>
-      </c>
-      <c r="G12" s="36" t="s">
-        <v>10</v>
-      </c>
+        <v>50</v>
+      </c>
+      <c r="G12" s="36"/>
       <c r="H12" s="36" t="s">
         <v>31</v>
       </c>
@@ -2548,23 +2671,23 @@
       <c r="R12" s="36"/>
       <c r="S12" s="36"/>
       <c r="T12" s="34"/>
-      <c r="U12" s="36"/>
-    </row>
-    <row r="13" spans="2:22" s="39" customFormat="1" ht="39">
+      <c r="U12" s="36" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="2:22" s="39" customFormat="1" ht="49.5" customHeight="1">
       <c r="B13" s="40"/>
       <c r="C13" s="41" t="s">
-        <v>35</v>
+        <v>110</v>
       </c>
       <c r="D13" s="38" t="s">
-        <v>90</v>
+        <v>111</v>
       </c>
       <c r="E13" s="35"/>
       <c r="F13" s="36" t="s">
         <v>50</v>
       </c>
-      <c r="G13" s="36" t="s">
-        <v>10</v>
-      </c>
+      <c r="G13" s="36"/>
       <c r="H13" s="36" t="s">
         <v>31</v>
       </c>
@@ -2584,25 +2707,21 @@
       <c r="R13" s="36"/>
       <c r="S13" s="36"/>
       <c r="T13" s="34"/>
-      <c r="U13" s="36" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="2:22" s="39" customFormat="1" ht="26">
+      <c r="U13" s="36"/>
+    </row>
+    <row r="14" spans="2:22" s="39" customFormat="1" ht="49.5" customHeight="1">
       <c r="B14" s="40"/>
       <c r="C14" s="41" t="s">
-        <v>42</v>
+        <v>112</v>
       </c>
       <c r="D14" s="38" t="s">
-        <v>45</v>
+        <v>113</v>
       </c>
       <c r="E14" s="35"/>
       <c r="F14" s="36" t="s">
         <v>50</v>
       </c>
-      <c r="G14" s="36" t="s">
-        <v>10</v>
-      </c>
+      <c r="G14" s="36"/>
       <c r="H14" s="36" t="s">
         <v>31</v>
       </c>
@@ -2622,59 +2741,53 @@
       <c r="R14" s="36"/>
       <c r="S14" s="36"/>
       <c r="T14" s="34"/>
-      <c r="U14" s="36" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="2:22" s="39" customFormat="1" ht="39">
-      <c r="B15" s="40"/>
-      <c r="C15" s="41" t="s">
-        <v>43</v>
-      </c>
-      <c r="D15" s="38" t="s">
-        <v>47</v>
-      </c>
-      <c r="E15" s="35"/>
-      <c r="F15" s="36" t="s">
-        <v>50</v>
-      </c>
-      <c r="G15" s="36" t="s">
+      <c r="U14" s="36"/>
+    </row>
+    <row r="15" spans="2:22" s="87" customFormat="1" ht="22.5" customHeight="1">
+      <c r="B15" s="88">
+        <v>2</v>
+      </c>
+      <c r="C15" s="89"/>
+      <c r="D15" s="57" t="s">
+        <v>71</v>
+      </c>
+      <c r="E15" s="90"/>
+      <c r="F15" s="86"/>
+      <c r="G15" s="86" t="s">
         <v>10</v>
       </c>
-      <c r="H15" s="36" t="s">
-        <v>31</v>
-      </c>
-      <c r="I15" s="42"/>
-      <c r="J15" s="36" t="s">
+      <c r="H15" s="86"/>
+      <c r="I15" s="86"/>
+      <c r="J15" s="86" t="s">
         <v>58</v>
       </c>
-      <c r="K15" s="36" t="s">
+      <c r="K15" s="86" t="s">
         <v>59</v>
       </c>
-      <c r="L15" s="36"/>
-      <c r="M15" s="36"/>
-      <c r="N15" s="35"/>
-      <c r="O15" s="34"/>
-      <c r="P15" s="37"/>
-      <c r="Q15" s="36"/>
-      <c r="R15" s="36"/>
-      <c r="S15" s="36"/>
-      <c r="T15" s="34"/>
-      <c r="U15" s="36" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="2:22" s="39" customFormat="1" ht="48" customHeight="1">
+      <c r="L15" s="86"/>
+      <c r="M15" s="86"/>
+      <c r="N15" s="90"/>
+      <c r="O15" s="57"/>
+      <c r="P15" s="91"/>
+      <c r="Q15" s="86"/>
+      <c r="R15" s="86"/>
+      <c r="S15" s="86"/>
+      <c r="T15" s="92"/>
+      <c r="U15" s="86" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="2:22" s="39" customFormat="1" ht="35.25" customHeight="1">
       <c r="B16" s="40"/>
       <c r="C16" s="41" t="s">
-        <v>44</v>
+        <v>33</v>
       </c>
       <c r="D16" s="38" t="s">
-        <v>48</v>
+        <v>72</v>
       </c>
       <c r="E16" s="35"/>
       <c r="F16" s="36" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="G16" s="36" t="s">
         <v>10</v>
@@ -2702,25 +2815,25 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="2:21" s="39" customFormat="1" ht="39">
+    <row r="17" spans="2:21" s="39" customFormat="1" ht="42.75" customHeight="1">
       <c r="B17" s="40"/>
       <c r="C17" s="41" t="s">
-        <v>46</v>
+        <v>34</v>
       </c>
       <c r="D17" s="38" t="s">
-        <v>91</v>
+        <v>41</v>
       </c>
       <c r="E17" s="35"/>
       <c r="F17" s="36" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="G17" s="36" t="s">
         <v>10</v>
       </c>
       <c r="H17" s="36" t="s">
-        <v>32</v>
-      </c>
-      <c r="I17" s="36"/>
+        <v>31</v>
+      </c>
+      <c r="I17" s="42"/>
       <c r="J17" s="36" t="s">
         <v>58</v>
       </c>
@@ -2730,30 +2843,34 @@
       <c r="L17" s="36"/>
       <c r="M17" s="36"/>
       <c r="N17" s="35"/>
-      <c r="O17" s="34" t="s">
-        <v>88</v>
-      </c>
+      <c r="O17" s="34"/>
       <c r="P17" s="37"/>
       <c r="Q17" s="36"/>
       <c r="R17" s="36"/>
       <c r="S17" s="36"/>
-      <c r="T17" s="38"/>
+      <c r="T17" s="34"/>
       <c r="U17" s="36" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="2:21" s="39" customFormat="1" ht="26">
-      <c r="B18" s="40">
-        <v>3</v>
-      </c>
-      <c r="C18" s="41"/>
+    <row r="18" spans="2:21" s="39" customFormat="1" ht="39">
+      <c r="B18" s="40"/>
+      <c r="C18" s="41" t="s">
+        <v>35</v>
+      </c>
       <c r="D18" s="38" t="s">
-        <v>62</v>
+        <v>90</v>
       </c>
       <c r="E18" s="35"/>
-      <c r="F18" s="36"/>
-      <c r="G18" s="36"/>
-      <c r="H18" s="36"/>
+      <c r="F18" s="36" t="s">
+        <v>50</v>
+      </c>
+      <c r="G18" s="36" t="s">
+        <v>10</v>
+      </c>
+      <c r="H18" s="36" t="s">
+        <v>31</v>
+      </c>
       <c r="I18" s="42"/>
       <c r="J18" s="36" t="s">
         <v>58</v>
@@ -2770,19 +2887,21 @@
       <c r="R18" s="36"/>
       <c r="S18" s="36"/>
       <c r="T18" s="34"/>
-      <c r="U18" s="36"/>
-    </row>
-    <row r="19" spans="2:21" s="39" customFormat="1" ht="49.5" customHeight="1">
+      <c r="U18" s="36" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="2:21" s="39" customFormat="1" ht="26">
       <c r="B19" s="40"/>
       <c r="C19" s="41" t="s">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="D19" s="38" t="s">
-        <v>61</v>
+        <v>45</v>
       </c>
       <c r="E19" s="35"/>
       <c r="F19" s="36" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="G19" s="36" t="s">
         <v>10</v>
@@ -2800,23 +2919,23 @@
       <c r="L19" s="36"/>
       <c r="M19" s="36"/>
       <c r="N19" s="35"/>
-      <c r="O19" s="34" t="s">
-        <v>85</v>
-      </c>
+      <c r="O19" s="34"/>
       <c r="P19" s="37"/>
       <c r="Q19" s="36"/>
       <c r="R19" s="36"/>
       <c r="S19" s="36"/>
       <c r="T19" s="34"/>
-      <c r="U19" s="36"/>
-    </row>
-    <row r="20" spans="2:21" s="39" customFormat="1" ht="49.5" customHeight="1">
+      <c r="U19" s="36" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="2:21" s="39" customFormat="1" ht="39">
       <c r="B20" s="40"/>
       <c r="C20" s="41" t="s">
-        <v>73</v>
+        <v>43</v>
       </c>
       <c r="D20" s="38" t="s">
-        <v>65</v>
+        <v>47</v>
       </c>
       <c r="E20" s="35"/>
       <c r="F20" s="36" t="s">
@@ -2826,7 +2945,7 @@
         <v>10</v>
       </c>
       <c r="H20" s="36" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="I20" s="42"/>
       <c r="J20" s="36" t="s">
@@ -2838,33 +2957,33 @@
       <c r="L20" s="36"/>
       <c r="M20" s="36"/>
       <c r="N20" s="35"/>
-      <c r="O20" s="34" t="s">
-        <v>85</v>
-      </c>
+      <c r="O20" s="34"/>
       <c r="P20" s="37"/>
       <c r="Q20" s="36"/>
       <c r="R20" s="36"/>
       <c r="S20" s="36"/>
       <c r="T20" s="34"/>
-      <c r="U20" s="36"/>
-    </row>
-    <row r="21" spans="2:21" s="39" customFormat="1" ht="49.5" customHeight="1">
+      <c r="U20" s="36" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="2:21" s="39" customFormat="1" ht="48" customHeight="1">
       <c r="B21" s="40"/>
       <c r="C21" s="41" t="s">
-        <v>74</v>
+        <v>44</v>
       </c>
       <c r="D21" s="38" t="s">
-        <v>67</v>
+        <v>48</v>
       </c>
       <c r="E21" s="35"/>
       <c r="F21" s="36" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="G21" s="36" t="s">
         <v>10</v>
       </c>
       <c r="H21" s="36" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="I21" s="42"/>
       <c r="J21" s="36" t="s">
@@ -2876,23 +2995,23 @@
       <c r="L21" s="36"/>
       <c r="M21" s="36"/>
       <c r="N21" s="35"/>
-      <c r="O21" s="34" t="s">
-        <v>49</v>
-      </c>
+      <c r="O21" s="34"/>
       <c r="P21" s="37"/>
       <c r="Q21" s="36"/>
       <c r="R21" s="36"/>
       <c r="S21" s="36"/>
       <c r="T21" s="34"/>
-      <c r="U21" s="36"/>
-    </row>
-    <row r="22" spans="2:21" s="39" customFormat="1" ht="49.5" customHeight="1">
+      <c r="U21" s="36" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="2:21" s="39" customFormat="1" ht="26">
       <c r="B22" s="40"/>
       <c r="C22" s="41" t="s">
-        <v>75</v>
+        <v>46</v>
       </c>
       <c r="D22" s="38" t="s">
-        <v>68</v>
+        <v>91</v>
       </c>
       <c r="E22" s="35"/>
       <c r="F22" s="36" t="s">
@@ -2902,9 +3021,9 @@
         <v>10</v>
       </c>
       <c r="H22" s="36" t="s">
-        <v>31</v>
-      </c>
-      <c r="I22" s="42"/>
+        <v>32</v>
+      </c>
+      <c r="I22" s="36"/>
       <c r="J22" s="36" t="s">
         <v>58</v>
       </c>
@@ -2914,25 +3033,29 @@
       <c r="L22" s="36"/>
       <c r="M22" s="36"/>
       <c r="N22" s="35"/>
-      <c r="O22" s="34"/>
+      <c r="O22" s="34" t="s">
+        <v>88</v>
+      </c>
       <c r="P22" s="37"/>
       <c r="Q22" s="36"/>
       <c r="R22" s="36"/>
       <c r="S22" s="36"/>
-      <c r="T22" s="34"/>
-      <c r="U22" s="36"/>
-    </row>
-    <row r="23" spans="2:21" s="39" customFormat="1" ht="49.5" customHeight="1">
+      <c r="T22" s="38"/>
+      <c r="U22" s="36" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="2:21" s="39" customFormat="1" ht="26">
       <c r="B23" s="40"/>
       <c r="C23" s="41" t="s">
-        <v>76</v>
+        <v>93</v>
       </c>
       <c r="D23" s="38" t="s">
-        <v>69</v>
+        <v>94</v>
       </c>
       <c r="E23" s="35"/>
       <c r="F23" s="36" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="G23" s="36" t="s">
         <v>10</v>
@@ -2940,7 +3063,7 @@
       <c r="H23" s="36" t="s">
         <v>31</v>
       </c>
-      <c r="I23" s="42"/>
+      <c r="I23" s="36"/>
       <c r="J23" s="36" t="s">
         <v>58</v>
       </c>
@@ -2955,20 +3078,22 @@
       <c r="Q23" s="36"/>
       <c r="R23" s="36"/>
       <c r="S23" s="36"/>
-      <c r="T23" s="34"/>
-      <c r="U23" s="36"/>
-    </row>
-    <row r="24" spans="2:21" s="39" customFormat="1" ht="49.5" customHeight="1">
+      <c r="T23" s="38"/>
+      <c r="U23" s="36" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="2:21" s="39" customFormat="1" ht="26">
       <c r="B24" s="40"/>
       <c r="C24" s="41" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="D24" s="38" t="s">
-        <v>70</v>
+        <v>95</v>
       </c>
       <c r="E24" s="35"/>
       <c r="F24" s="36" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="G24" s="36" t="s">
         <v>10</v>
@@ -2992,19 +3117,19 @@
       <c r="R24" s="36"/>
       <c r="S24" s="36"/>
       <c r="T24" s="34"/>
-      <c r="U24" s="36"/>
-    </row>
-    <row r="25" spans="2:21" s="39" customFormat="1" ht="39">
+      <c r="U24" s="36" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="2:21" s="39" customFormat="1" ht="26">
       <c r="B25" s="40"/>
       <c r="C25" s="41" t="s">
-        <v>79</v>
-      </c>
-      <c r="D25" s="81" t="s">
-        <v>56</v>
-      </c>
-      <c r="E25" s="35" t="s">
-        <v>57</v>
-      </c>
+        <v>96</v>
+      </c>
+      <c r="D25" s="38" t="s">
+        <v>97</v>
+      </c>
+      <c r="E25" s="35"/>
       <c r="F25" s="36" t="s">
         <v>50</v>
       </c>
@@ -3014,7 +3139,7 @@
       <c r="H25" s="36" t="s">
         <v>31</v>
       </c>
-      <c r="I25" s="36"/>
+      <c r="I25" s="42"/>
       <c r="J25" s="36" t="s">
         <v>58</v>
       </c>
@@ -3024,33 +3149,41 @@
       <c r="L25" s="36"/>
       <c r="M25" s="36"/>
       <c r="N25" s="35"/>
-      <c r="O25" s="34" t="s">
-        <v>85</v>
-      </c>
+      <c r="O25" s="34"/>
       <c r="P25" s="37"/>
       <c r="Q25" s="36"/>
       <c r="R25" s="36"/>
       <c r="S25" s="36"/>
-      <c r="T25" s="38"/>
+      <c r="T25" s="34"/>
       <c r="U25" s="36" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="2:21" s="39" customFormat="1" ht="15">
-      <c r="B26" s="40">
-        <v>4</v>
-      </c>
-      <c r="C26" s="41"/>
+    <row r="26" spans="2:21" s="39" customFormat="1" ht="26">
+      <c r="B26" s="40"/>
+      <c r="C26" s="41" t="s">
+        <v>98</v>
+      </c>
       <c r="D26" s="38" t="s">
-        <v>84</v>
+        <v>99</v>
       </c>
       <c r="E26" s="35"/>
-      <c r="F26" s="55"/>
-      <c r="G26" s="55"/>
-      <c r="H26" s="55"/>
-      <c r="I26" s="56"/>
-      <c r="J26" s="55"/>
-      <c r="K26" s="55"/>
+      <c r="F26" s="36" t="s">
+        <v>52</v>
+      </c>
+      <c r="G26" s="36" t="s">
+        <v>10</v>
+      </c>
+      <c r="H26" s="36" t="s">
+        <v>31</v>
+      </c>
+      <c r="I26" s="42"/>
+      <c r="J26" s="36" t="s">
+        <v>58</v>
+      </c>
+      <c r="K26" s="36" t="s">
+        <v>59</v>
+      </c>
       <c r="L26" s="36"/>
       <c r="M26" s="36"/>
       <c r="N26" s="35"/>
@@ -3064,23 +3197,23 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="2:21" s="39" customFormat="1" ht="39">
+    <row r="27" spans="2:21" s="39" customFormat="1" ht="26">
       <c r="B27" s="40"/>
       <c r="C27" s="41" t="s">
-        <v>85</v>
+        <v>100</v>
       </c>
       <c r="D27" s="38" t="s">
-        <v>53</v>
-      </c>
-      <c r="E27" s="51"/>
+        <v>101</v>
+      </c>
+      <c r="E27" s="35"/>
       <c r="F27" s="36" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="G27" s="36" t="s">
         <v>10</v>
       </c>
       <c r="H27" s="36" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="I27" s="42"/>
       <c r="J27" s="36" t="s">
@@ -3089,28 +3222,28 @@
       <c r="K27" s="36" t="s">
         <v>59</v>
       </c>
-      <c r="L27" s="52"/>
-      <c r="M27" s="52"/>
-      <c r="N27" s="51"/>
-      <c r="O27" s="53" t="s">
-        <v>89</v>
-      </c>
-      <c r="P27" s="54"/>
-      <c r="Q27" s="52"/>
-      <c r="R27" s="52"/>
-      <c r="S27" s="52"/>
-      <c r="T27" s="53"/>
-      <c r="U27" s="52"/>
-    </row>
-    <row r="28" spans="2:21" s="39" customFormat="1" ht="15">
+      <c r="L27" s="36"/>
+      <c r="M27" s="36"/>
+      <c r="N27" s="35"/>
+      <c r="O27" s="34"/>
+      <c r="P27" s="37"/>
+      <c r="Q27" s="36"/>
+      <c r="R27" s="36"/>
+      <c r="S27" s="36"/>
+      <c r="T27" s="34"/>
+      <c r="U27" s="36" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="2:21" s="39" customFormat="1" ht="25">
       <c r="B28" s="40"/>
       <c r="C28" s="41" t="s">
-        <v>86</v>
-      </c>
-      <c r="D28" s="38" t="s">
-        <v>87</v>
-      </c>
-      <c r="E28" s="35"/>
+        <v>102</v>
+      </c>
+      <c r="D28" s="78" t="s">
+        <v>103</v>
+      </c>
+      <c r="E28" s="51"/>
       <c r="F28" s="36" t="s">
         <v>50</v>
       </c>
@@ -3118,16 +3251,16 @@
         <v>10</v>
       </c>
       <c r="H28" s="36" t="s">
-        <v>32</v>
-      </c>
-      <c r="I28" s="42"/>
+        <v>31</v>
+      </c>
+      <c r="I28" s="79"/>
       <c r="J28" s="36" t="s">
         <v>58</v>
       </c>
       <c r="K28" s="36" t="s">
         <v>59</v>
       </c>
-      <c r="L28" s="36"/>
+      <c r="L28" s="52"/>
       <c r="M28" s="52"/>
       <c r="N28" s="51"/>
       <c r="O28" s="53"/>
@@ -3136,15 +3269,17 @@
       <c r="R28" s="52"/>
       <c r="S28" s="52"/>
       <c r="T28" s="53"/>
-      <c r="U28" s="52"/>
-    </row>
-    <row r="29" spans="2:21" s="39" customFormat="1" ht="15">
+      <c r="U28" s="86" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="2:21" s="39" customFormat="1" ht="25" customHeight="1">
       <c r="B29" s="40">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C29" s="41"/>
       <c r="D29" s="38" t="s">
-        <v>80</v>
+        <v>62</v>
       </c>
       <c r="E29" s="35"/>
       <c r="F29" s="36"/>
@@ -3168,25 +3303,25 @@
       <c r="T29" s="34"/>
       <c r="U29" s="36"/>
     </row>
-    <row r="30" spans="2:21" s="39" customFormat="1" ht="39">
+    <row r="30" spans="2:21" s="39" customFormat="1" ht="49.5" customHeight="1">
       <c r="B30" s="40"/>
       <c r="C30" s="41" t="s">
-        <v>63</v>
-      </c>
-      <c r="D30" s="34" t="s">
-        <v>81</v>
+        <v>49</v>
+      </c>
+      <c r="D30" s="38" t="s">
+        <v>61</v>
       </c>
       <c r="E30" s="35"/>
       <c r="F30" s="36" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="G30" s="36" t="s">
         <v>10</v>
       </c>
       <c r="H30" s="36" t="s">
-        <v>32</v>
-      </c>
-      <c r="I30" s="36"/>
+        <v>31</v>
+      </c>
+      <c r="I30" s="42"/>
       <c r="J30" s="36" t="s">
         <v>58</v>
       </c>
@@ -3203,18 +3338,16 @@
       <c r="Q30" s="36"/>
       <c r="R30" s="36"/>
       <c r="S30" s="36"/>
-      <c r="T30" s="38"/>
-      <c r="U30" s="36" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="31" spans="2:21" s="39" customFormat="1" ht="26">
+      <c r="T30" s="34"/>
+      <c r="U30" s="36"/>
+    </row>
+    <row r="31" spans="2:21" s="39" customFormat="1" ht="49.5" customHeight="1">
       <c r="B31" s="40"/>
       <c r="C31" s="41" t="s">
-        <v>64</v>
+        <v>73</v>
       </c>
       <c r="D31" s="38" t="s">
-        <v>82</v>
+        <v>65</v>
       </c>
       <c r="E31" s="35"/>
       <c r="F31" s="36" t="s">
@@ -3246,23 +3379,23 @@
       <c r="T31" s="34"/>
       <c r="U31" s="36"/>
     </row>
-    <row r="32" spans="2:21" s="39" customFormat="1" ht="39">
+    <row r="32" spans="2:21" s="39" customFormat="1" ht="49.5" customHeight="1">
       <c r="B32" s="40"/>
       <c r="C32" s="41" t="s">
-        <v>66</v>
+        <v>74</v>
       </c>
       <c r="D32" s="38" t="s">
-        <v>83</v>
+        <v>67</v>
       </c>
       <c r="E32" s="35"/>
       <c r="F32" s="36" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="G32" s="36" t="s">
         <v>10</v>
       </c>
       <c r="H32" s="36" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="I32" s="42"/>
       <c r="J32" s="36" t="s">
@@ -3275,7 +3408,7 @@
       <c r="M32" s="36"/>
       <c r="N32" s="35"/>
       <c r="O32" s="34" t="s">
-        <v>85</v>
+        <v>49</v>
       </c>
       <c r="P32" s="37"/>
       <c r="Q32" s="36"/>
@@ -3284,13 +3417,13 @@
       <c r="T32" s="34"/>
       <c r="U32" s="36"/>
     </row>
-    <row r="33" spans="2:21" s="39" customFormat="1" ht="39">
-      <c r="B33" s="40">
-        <v>6</v>
-      </c>
-      <c r="C33" s="41"/>
+    <row r="33" spans="2:21" s="39" customFormat="1" ht="49.5" customHeight="1">
+      <c r="B33" s="40"/>
+      <c r="C33" s="41" t="s">
+        <v>75</v>
+      </c>
       <c r="D33" s="38" t="s">
-        <v>54</v>
+        <v>68</v>
       </c>
       <c r="E33" s="35"/>
       <c r="F33" s="36" t="s">
@@ -3300,7 +3433,7 @@
         <v>10</v>
       </c>
       <c r="H33" s="36" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="I33" s="42"/>
       <c r="J33" s="36" t="s">
@@ -3318,23 +3451,33 @@
       <c r="R33" s="36"/>
       <c r="S33" s="36"/>
       <c r="T33" s="34"/>
-      <c r="U33" s="36" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="34" spans="2:21" s="39" customFormat="1" ht="15">
-      <c r="B34" s="40">
+      <c r="U33" s="36"/>
+    </row>
+    <row r="34" spans="2:21" s="39" customFormat="1" ht="49.5" customHeight="1">
+      <c r="B34" s="40"/>
+      <c r="C34" s="41" t="s">
+        <v>76</v>
+      </c>
+      <c r="D34" s="38" t="s">
+        <v>69</v>
+      </c>
+      <c r="E34" s="35"/>
+      <c r="F34" s="36" t="s">
+        <v>50</v>
+      </c>
+      <c r="G34" s="36" t="s">
         <v>10</v>
       </c>
-      <c r="C34" s="41"/>
-      <c r="D34" s="34"/>
-      <c r="E34" s="35"/>
-      <c r="F34" s="36"/>
-      <c r="G34" s="36"/>
-      <c r="H34" s="36"/>
-      <c r="I34" s="36"/>
-      <c r="J34" s="36"/>
-      <c r="K34" s="36"/>
+      <c r="H34" s="36" t="s">
+        <v>31</v>
+      </c>
+      <c r="I34" s="42"/>
+      <c r="J34" s="36" t="s">
+        <v>58</v>
+      </c>
+      <c r="K34" s="36" t="s">
+        <v>59</v>
+      </c>
       <c r="L34" s="36"/>
       <c r="M34" s="36"/>
       <c r="N34" s="35"/>
@@ -3343,24 +3486,34 @@
       <c r="Q34" s="36"/>
       <c r="R34" s="36"/>
       <c r="S34" s="36"/>
-      <c r="T34" s="38"/>
-      <c r="U34" s="36" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="35" spans="2:21" s="39" customFormat="1" ht="15">
-      <c r="B35" s="40">
-        <v>11</v>
-      </c>
-      <c r="C35" s="41"/>
-      <c r="D35" s="34"/>
+      <c r="T34" s="34"/>
+      <c r="U34" s="36"/>
+    </row>
+    <row r="35" spans="2:21" s="39" customFormat="1" ht="49.5" customHeight="1">
+      <c r="B35" s="40"/>
+      <c r="C35" s="41" t="s">
+        <v>77</v>
+      </c>
+      <c r="D35" s="38" t="s">
+        <v>70</v>
+      </c>
       <c r="E35" s="35"/>
-      <c r="F35" s="36"/>
-      <c r="G35" s="36"/>
-      <c r="H35" s="36"/>
-      <c r="I35" s="36"/>
-      <c r="J35" s="36"/>
-      <c r="K35" s="36"/>
+      <c r="F35" s="36" t="s">
+        <v>50</v>
+      </c>
+      <c r="G35" s="36" t="s">
+        <v>10</v>
+      </c>
+      <c r="H35" s="36" t="s">
+        <v>31</v>
+      </c>
+      <c r="I35" s="42"/>
+      <c r="J35" s="36" t="s">
+        <v>58</v>
+      </c>
+      <c r="K35" s="36" t="s">
+        <v>59</v>
+      </c>
       <c r="L35" s="36"/>
       <c r="M35" s="36"/>
       <c r="N35" s="35"/>
@@ -3369,28 +3522,42 @@
       <c r="Q35" s="36"/>
       <c r="R35" s="36"/>
       <c r="S35" s="36"/>
-      <c r="T35" s="38"/>
-      <c r="U35" s="36" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="36" spans="2:21" s="39" customFormat="1" ht="15">
-      <c r="B36" s="40">
-        <v>12</v>
-      </c>
-      <c r="C36" s="41"/>
-      <c r="D36" s="34"/>
-      <c r="E36" s="35"/>
-      <c r="F36" s="36"/>
-      <c r="G36" s="36"/>
-      <c r="H36" s="36"/>
+      <c r="T35" s="34"/>
+      <c r="U35" s="36"/>
+    </row>
+    <row r="36" spans="2:21" s="39" customFormat="1" ht="39">
+      <c r="B36" s="40"/>
+      <c r="C36" s="41" t="s">
+        <v>79</v>
+      </c>
+      <c r="D36" s="57" t="s">
+        <v>56</v>
+      </c>
+      <c r="E36" s="35" t="s">
+        <v>57</v>
+      </c>
+      <c r="F36" s="36" t="s">
+        <v>50</v>
+      </c>
+      <c r="G36" s="36" t="s">
+        <v>10</v>
+      </c>
+      <c r="H36" s="36" t="s">
+        <v>31</v>
+      </c>
       <c r="I36" s="36"/>
-      <c r="J36" s="36"/>
-      <c r="K36" s="36"/>
+      <c r="J36" s="36" t="s">
+        <v>58</v>
+      </c>
+      <c r="K36" s="36" t="s">
+        <v>59</v>
+      </c>
       <c r="L36" s="36"/>
       <c r="M36" s="36"/>
       <c r="N36" s="35"/>
-      <c r="O36" s="34"/>
+      <c r="O36" s="34" t="s">
+        <v>85</v>
+      </c>
       <c r="P36" s="37"/>
       <c r="Q36" s="36"/>
       <c r="R36" s="36"/>
@@ -3402,17 +3569,19 @@
     </row>
     <row r="37" spans="2:21" s="39" customFormat="1" ht="15">
       <c r="B37" s="40">
-        <v>13</v>
+        <v>4</v>
       </c>
       <c r="C37" s="41"/>
-      <c r="D37" s="34"/>
+      <c r="D37" s="38" t="s">
+        <v>84</v>
+      </c>
       <c r="E37" s="35"/>
-      <c r="F37" s="36"/>
-      <c r="G37" s="36"/>
-      <c r="H37" s="36"/>
-      <c r="I37" s="36"/>
-      <c r="J37" s="36"/>
-      <c r="K37" s="36"/>
+      <c r="F37" s="55"/>
+      <c r="G37" s="55"/>
+      <c r="H37" s="55"/>
+      <c r="I37" s="56"/>
+      <c r="J37" s="55"/>
+      <c r="K37" s="55"/>
       <c r="L37" s="36"/>
       <c r="M37" s="36"/>
       <c r="N37" s="35"/>
@@ -3421,76 +3590,104 @@
       <c r="Q37" s="36"/>
       <c r="R37" s="36"/>
       <c r="S37" s="36"/>
-      <c r="T37" s="38"/>
+      <c r="T37" s="34"/>
       <c r="U37" s="36" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="2:21" s="39" customFormat="1" ht="15">
-      <c r="B38" s="40">
-        <v>13</v>
-      </c>
-      <c r="C38" s="41"/>
-      <c r="D38" s="34"/>
-      <c r="E38" s="35"/>
-      <c r="F38" s="36"/>
-      <c r="G38" s="36"/>
-      <c r="H38" s="36"/>
-      <c r="I38" s="36"/>
-      <c r="J38" s="36"/>
-      <c r="K38" s="36"/>
-      <c r="L38" s="36"/>
-      <c r="M38" s="36"/>
-      <c r="N38" s="35"/>
-      <c r="O38" s="34"/>
-      <c r="P38" s="37"/>
-      <c r="Q38" s="36"/>
-      <c r="R38" s="36"/>
-      <c r="S38" s="36"/>
-      <c r="T38" s="38"/>
-      <c r="U38" s="36" t="s">
-        <v>0</v>
-      </c>
+    <row r="38" spans="2:21" s="39" customFormat="1" ht="39">
+      <c r="B38" s="40"/>
+      <c r="C38" s="41" t="s">
+        <v>85</v>
+      </c>
+      <c r="D38" s="38" t="s">
+        <v>53</v>
+      </c>
+      <c r="E38" s="51"/>
+      <c r="F38" s="36" t="s">
+        <v>50</v>
+      </c>
+      <c r="G38" s="36" t="s">
+        <v>10</v>
+      </c>
+      <c r="H38" s="36" t="s">
+        <v>32</v>
+      </c>
+      <c r="I38" s="42"/>
+      <c r="J38" s="36" t="s">
+        <v>58</v>
+      </c>
+      <c r="K38" s="36" t="s">
+        <v>59</v>
+      </c>
+      <c r="L38" s="52"/>
+      <c r="M38" s="52"/>
+      <c r="N38" s="51"/>
+      <c r="O38" s="53" t="s">
+        <v>89</v>
+      </c>
+      <c r="P38" s="54"/>
+      <c r="Q38" s="52"/>
+      <c r="R38" s="52"/>
+      <c r="S38" s="52"/>
+      <c r="T38" s="53"/>
+      <c r="U38" s="52"/>
     </row>
     <row r="39" spans="2:21" s="39" customFormat="1" ht="15">
-      <c r="B39" s="40">
-        <v>14</v>
-      </c>
-      <c r="C39" s="41"/>
-      <c r="D39" s="34"/>
+      <c r="B39" s="40"/>
+      <c r="C39" s="41" t="s">
+        <v>86</v>
+      </c>
+      <c r="D39" s="38" t="s">
+        <v>87</v>
+      </c>
       <c r="E39" s="35"/>
-      <c r="F39" s="36"/>
-      <c r="G39" s="36"/>
-      <c r="H39" s="36"/>
-      <c r="I39" s="36"/>
-      <c r="J39" s="36"/>
-      <c r="K39" s="36"/>
+      <c r="F39" s="36" t="s">
+        <v>50</v>
+      </c>
+      <c r="G39" s="36" t="s">
+        <v>10</v>
+      </c>
+      <c r="H39" s="36" t="s">
+        <v>32</v>
+      </c>
+      <c r="I39" s="42"/>
+      <c r="J39" s="36" t="s">
+        <v>58</v>
+      </c>
+      <c r="K39" s="36" t="s">
+        <v>59</v>
+      </c>
       <c r="L39" s="36"/>
-      <c r="M39" s="36"/>
-      <c r="N39" s="35"/>
-      <c r="O39" s="34"/>
-      <c r="P39" s="37"/>
-      <c r="Q39" s="36"/>
-      <c r="R39" s="36"/>
-      <c r="S39" s="36"/>
-      <c r="T39" s="38"/>
-      <c r="U39" s="36" t="s">
-        <v>0</v>
-      </c>
+      <c r="M39" s="52"/>
+      <c r="N39" s="51"/>
+      <c r="O39" s="53"/>
+      <c r="P39" s="54"/>
+      <c r="Q39" s="52"/>
+      <c r="R39" s="52"/>
+      <c r="S39" s="52"/>
+      <c r="T39" s="53"/>
+      <c r="U39" s="52"/>
     </row>
     <row r="40" spans="2:21" s="39" customFormat="1" ht="15">
       <c r="B40" s="40">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="C40" s="41"/>
-      <c r="D40" s="34"/>
+      <c r="D40" s="38" t="s">
+        <v>80</v>
+      </c>
       <c r="E40" s="35"/>
       <c r="F40" s="36"/>
       <c r="G40" s="36"/>
       <c r="H40" s="36"/>
-      <c r="I40" s="36"/>
-      <c r="J40" s="36"/>
-      <c r="K40" s="36"/>
+      <c r="I40" s="42"/>
+      <c r="J40" s="36" t="s">
+        <v>58</v>
+      </c>
+      <c r="K40" s="36" t="s">
+        <v>59</v>
+      </c>
       <c r="L40" s="36"/>
       <c r="M40" s="36"/>
       <c r="N40" s="35"/>
@@ -3499,28 +3696,40 @@
       <c r="Q40" s="36"/>
       <c r="R40" s="36"/>
       <c r="S40" s="36"/>
-      <c r="T40" s="38"/>
-      <c r="U40" s="36" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="41" spans="2:21" s="39" customFormat="1" ht="15">
-      <c r="B41" s="40">
-        <v>16</v>
-      </c>
-      <c r="C41" s="41"/>
-      <c r="D41" s="34"/>
+      <c r="T40" s="34"/>
+      <c r="U40" s="36"/>
+    </row>
+    <row r="41" spans="2:21" s="39" customFormat="1" ht="39">
+      <c r="B41" s="40"/>
+      <c r="C41" s="41" t="s">
+        <v>63</v>
+      </c>
+      <c r="D41" s="34" t="s">
+        <v>81</v>
+      </c>
       <c r="E41" s="35"/>
-      <c r="F41" s="36"/>
-      <c r="G41" s="36"/>
-      <c r="H41" s="36"/>
+      <c r="F41" s="36" t="s">
+        <v>50</v>
+      </c>
+      <c r="G41" s="36" t="s">
+        <v>10</v>
+      </c>
+      <c r="H41" s="36" t="s">
+        <v>32</v>
+      </c>
       <c r="I41" s="36"/>
-      <c r="J41" s="36"/>
-      <c r="K41" s="36"/>
+      <c r="J41" s="36" t="s">
+        <v>58</v>
+      </c>
+      <c r="K41" s="36" t="s">
+        <v>59</v>
+      </c>
       <c r="L41" s="36"/>
       <c r="M41" s="36"/>
       <c r="N41" s="35"/>
-      <c r="O41" s="34"/>
+      <c r="O41" s="34" t="s">
+        <v>85</v>
+      </c>
       <c r="P41" s="37"/>
       <c r="Q41" s="36"/>
       <c r="R41" s="36"/>
@@ -3530,71 +3739,107 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="2:21" s="39" customFormat="1" ht="15">
-      <c r="B42" s="40">
-        <v>17</v>
-      </c>
-      <c r="C42" s="41"/>
-      <c r="D42" s="34"/>
+    <row r="42" spans="2:21" s="39" customFormat="1" ht="26">
+      <c r="B42" s="40"/>
+      <c r="C42" s="41" t="s">
+        <v>64</v>
+      </c>
+      <c r="D42" s="38" t="s">
+        <v>82</v>
+      </c>
       <c r="E42" s="35"/>
-      <c r="F42" s="36"/>
-      <c r="G42" s="36"/>
-      <c r="H42" s="36"/>
-      <c r="I42" s="36"/>
-      <c r="J42" s="36"/>
-      <c r="K42" s="36"/>
+      <c r="F42" s="36" t="s">
+        <v>50</v>
+      </c>
+      <c r="G42" s="36" t="s">
+        <v>10</v>
+      </c>
+      <c r="H42" s="36" t="s">
+        <v>32</v>
+      </c>
+      <c r="I42" s="42"/>
+      <c r="J42" s="36" t="s">
+        <v>58</v>
+      </c>
+      <c r="K42" s="36" t="s">
+        <v>59</v>
+      </c>
       <c r="L42" s="36"/>
       <c r="M42" s="36"/>
       <c r="N42" s="35"/>
-      <c r="O42" s="34"/>
+      <c r="O42" s="34" t="s">
+        <v>85</v>
+      </c>
       <c r="P42" s="37"/>
       <c r="Q42" s="36"/>
       <c r="R42" s="36"/>
       <c r="S42" s="36"/>
-      <c r="T42" s="38"/>
-      <c r="U42" s="36" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="43" spans="2:21" s="39" customFormat="1" ht="15">
-      <c r="B43" s="40">
-        <v>18</v>
-      </c>
-      <c r="C43" s="41"/>
-      <c r="D43" s="34"/>
+      <c r="T42" s="34"/>
+      <c r="U42" s="36"/>
+    </row>
+    <row r="43" spans="2:21" s="39" customFormat="1" ht="39">
+      <c r="B43" s="40"/>
+      <c r="C43" s="41" t="s">
+        <v>66</v>
+      </c>
+      <c r="D43" s="38" t="s">
+        <v>83</v>
+      </c>
       <c r="E43" s="35"/>
-      <c r="F43" s="36"/>
-      <c r="G43" s="36"/>
-      <c r="H43" s="36"/>
-      <c r="I43" s="36"/>
-      <c r="J43" s="36"/>
-      <c r="K43" s="36"/>
+      <c r="F43" s="36" t="s">
+        <v>50</v>
+      </c>
+      <c r="G43" s="36" t="s">
+        <v>10</v>
+      </c>
+      <c r="H43" s="36" t="s">
+        <v>31</v>
+      </c>
+      <c r="I43" s="42"/>
+      <c r="J43" s="36" t="s">
+        <v>58</v>
+      </c>
+      <c r="K43" s="36" t="s">
+        <v>59</v>
+      </c>
       <c r="L43" s="36"/>
       <c r="M43" s="36"/>
       <c r="N43" s="35"/>
-      <c r="O43" s="34"/>
+      <c r="O43" s="34" t="s">
+        <v>85</v>
+      </c>
       <c r="P43" s="37"/>
       <c r="Q43" s="36"/>
       <c r="R43" s="36"/>
       <c r="S43" s="36"/>
-      <c r="T43" s="38"/>
-      <c r="U43" s="36" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="44" spans="2:21" s="39" customFormat="1" ht="15">
+      <c r="T43" s="34"/>
+      <c r="U43" s="36"/>
+    </row>
+    <row r="44" spans="2:21" s="39" customFormat="1" ht="39">
       <c r="B44" s="40">
-        <v>19</v>
+        <v>6</v>
       </c>
       <c r="C44" s="41"/>
-      <c r="D44" s="34"/>
+      <c r="D44" s="38" t="s">
+        <v>54</v>
+      </c>
       <c r="E44" s="35"/>
-      <c r="F44" s="36"/>
-      <c r="G44" s="36"/>
-      <c r="H44" s="36"/>
-      <c r="I44" s="36"/>
-      <c r="J44" s="36"/>
-      <c r="K44" s="36"/>
+      <c r="F44" s="36" t="s">
+        <v>50</v>
+      </c>
+      <c r="G44" s="36" t="s">
+        <v>10</v>
+      </c>
+      <c r="H44" s="36" t="s">
+        <v>32</v>
+      </c>
+      <c r="I44" s="42"/>
+      <c r="J44" s="36" t="s">
+        <v>58</v>
+      </c>
+      <c r="K44" s="36" t="s">
+        <v>59</v>
+      </c>
       <c r="L44" s="36"/>
       <c r="M44" s="36"/>
       <c r="N44" s="35"/>
@@ -3603,17 +3848,17 @@
       <c r="Q44" s="36"/>
       <c r="R44" s="36"/>
       <c r="S44" s="36"/>
-      <c r="T44" s="38"/>
+      <c r="T44" s="34"/>
       <c r="U44" s="36" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="45" spans="2:21" s="39" customFormat="1" ht="15">
       <c r="B45" s="40">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="C45" s="41"/>
-      <c r="D45" s="34"/>
+      <c r="D45" s="57"/>
       <c r="E45" s="35"/>
       <c r="F45" s="36"/>
       <c r="G45" s="36"/>
@@ -3636,7 +3881,7 @@
     </row>
     <row r="46" spans="2:21" s="39" customFormat="1" ht="15">
       <c r="B46" s="40">
-        <v>21</v>
+        <v>11</v>
       </c>
       <c r="C46" s="41"/>
       <c r="D46" s="34"/>
@@ -3662,7 +3907,7 @@
     </row>
     <row r="47" spans="2:21" s="39" customFormat="1" ht="15">
       <c r="B47" s="40">
-        <v>22</v>
+        <v>12</v>
       </c>
       <c r="C47" s="41"/>
       <c r="D47" s="34"/>
@@ -3688,7 +3933,7 @@
     </row>
     <row r="48" spans="2:21" s="39" customFormat="1" ht="15">
       <c r="B48" s="40">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="C48" s="41"/>
       <c r="D48" s="34"/>
@@ -3714,7 +3959,7 @@
     </row>
     <row r="49" spans="2:21" s="39" customFormat="1" ht="15">
       <c r="B49" s="40">
-        <v>24</v>
+        <v>13</v>
       </c>
       <c r="C49" s="41"/>
       <c r="D49" s="34"/>
@@ -3740,7 +3985,7 @@
     </row>
     <row r="50" spans="2:21" s="39" customFormat="1" ht="15">
       <c r="B50" s="40">
-        <v>25</v>
+        <v>14</v>
       </c>
       <c r="C50" s="41"/>
       <c r="D50" s="34"/>
@@ -3766,7 +4011,7 @@
     </row>
     <row r="51" spans="2:21" s="39" customFormat="1" ht="15">
       <c r="B51" s="40">
-        <v>26</v>
+        <v>15</v>
       </c>
       <c r="C51" s="41"/>
       <c r="D51" s="34"/>
@@ -3792,7 +4037,7 @@
     </row>
     <row r="52" spans="2:21" s="39" customFormat="1" ht="15">
       <c r="B52" s="40">
-        <v>27</v>
+        <v>16</v>
       </c>
       <c r="C52" s="41"/>
       <c r="D52" s="34"/>
@@ -3818,7 +4063,7 @@
     </row>
     <row r="53" spans="2:21" s="39" customFormat="1" ht="15">
       <c r="B53" s="40">
-        <v>28</v>
+        <v>17</v>
       </c>
       <c r="C53" s="41"/>
       <c r="D53" s="34"/>
@@ -3844,7 +4089,7 @@
     </row>
     <row r="54" spans="2:21" s="39" customFormat="1" ht="15">
       <c r="B54" s="40">
-        <v>29</v>
+        <v>18</v>
       </c>
       <c r="C54" s="41"/>
       <c r="D54" s="34"/>
@@ -3870,7 +4115,7 @@
     </row>
     <row r="55" spans="2:21" s="39" customFormat="1" ht="15">
       <c r="B55" s="40">
-        <v>30</v>
+        <v>19</v>
       </c>
       <c r="C55" s="41"/>
       <c r="D55" s="34"/>
@@ -3896,7 +4141,7 @@
     </row>
     <row r="56" spans="2:21" s="39" customFormat="1" ht="15">
       <c r="B56" s="40">
-        <v>31</v>
+        <v>20</v>
       </c>
       <c r="C56" s="41"/>
       <c r="D56" s="34"/>
@@ -3922,7 +4167,7 @@
     </row>
     <row r="57" spans="2:21" s="39" customFormat="1" ht="15">
       <c r="B57" s="40">
-        <v>32</v>
+        <v>21</v>
       </c>
       <c r="C57" s="41"/>
       <c r="D57" s="34"/>
@@ -3948,7 +4193,7 @@
     </row>
     <row r="58" spans="2:21" s="39" customFormat="1" ht="15">
       <c r="B58" s="40">
-        <v>33</v>
+        <v>22</v>
       </c>
       <c r="C58" s="41"/>
       <c r="D58" s="34"/>
@@ -3974,7 +4219,7 @@
     </row>
     <row r="59" spans="2:21" s="39" customFormat="1" ht="15">
       <c r="B59" s="40">
-        <v>34</v>
+        <v>23</v>
       </c>
       <c r="C59" s="41"/>
       <c r="D59" s="34"/>
@@ -4000,7 +4245,7 @@
     </row>
     <row r="60" spans="2:21" s="39" customFormat="1" ht="15">
       <c r="B60" s="40">
-        <v>35</v>
+        <v>24</v>
       </c>
       <c r="C60" s="41"/>
       <c r="D60" s="34"/>
@@ -4026,7 +4271,7 @@
     </row>
     <row r="61" spans="2:21" s="39" customFormat="1" ht="15">
       <c r="B61" s="40">
-        <v>36</v>
+        <v>25</v>
       </c>
       <c r="C61" s="41"/>
       <c r="D61" s="34"/>
@@ -4052,7 +4297,7 @@
     </row>
     <row r="62" spans="2:21" s="39" customFormat="1" ht="15">
       <c r="B62" s="40">
-        <v>37</v>
+        <v>26</v>
       </c>
       <c r="C62" s="41"/>
       <c r="D62" s="34"/>
@@ -4078,7 +4323,7 @@
     </row>
     <row r="63" spans="2:21" s="39" customFormat="1" ht="15">
       <c r="B63" s="40">
-        <v>38</v>
+        <v>27</v>
       </c>
       <c r="C63" s="41"/>
       <c r="D63" s="34"/>
@@ -4104,7 +4349,7 @@
     </row>
     <row r="64" spans="2:21" s="39" customFormat="1" ht="15">
       <c r="B64" s="40">
-        <v>39</v>
+        <v>28</v>
       </c>
       <c r="C64" s="41"/>
       <c r="D64" s="34"/>
@@ -4130,7 +4375,7 @@
     </row>
     <row r="65" spans="2:21" s="39" customFormat="1" ht="15">
       <c r="B65" s="40">
-        <v>40</v>
+        <v>29</v>
       </c>
       <c r="C65" s="41"/>
       <c r="D65" s="34"/>
@@ -4156,7 +4401,7 @@
     </row>
     <row r="66" spans="2:21" s="39" customFormat="1" ht="15">
       <c r="B66" s="40">
-        <v>41</v>
+        <v>30</v>
       </c>
       <c r="C66" s="41"/>
       <c r="D66" s="34"/>
@@ -4182,7 +4427,7 @@
     </row>
     <row r="67" spans="2:21" s="39" customFormat="1" ht="15">
       <c r="B67" s="40">
-        <v>42</v>
+        <v>31</v>
       </c>
       <c r="C67" s="41"/>
       <c r="D67" s="34"/>
@@ -4208,7 +4453,7 @@
     </row>
     <row r="68" spans="2:21" s="39" customFormat="1" ht="15">
       <c r="B68" s="40">
-        <v>43</v>
+        <v>32</v>
       </c>
       <c r="C68" s="41"/>
       <c r="D68" s="34"/>
@@ -4234,7 +4479,7 @@
     </row>
     <row r="69" spans="2:21" s="39" customFormat="1" ht="15">
       <c r="B69" s="40">
-        <v>44</v>
+        <v>33</v>
       </c>
       <c r="C69" s="41"/>
       <c r="D69" s="34"/>
@@ -4260,7 +4505,7 @@
     </row>
     <row r="70" spans="2:21" s="39" customFormat="1" ht="15">
       <c r="B70" s="40">
-        <v>45</v>
+        <v>34</v>
       </c>
       <c r="C70" s="41"/>
       <c r="D70" s="34"/>
@@ -4286,7 +4531,7 @@
     </row>
     <row r="71" spans="2:21" s="39" customFormat="1" ht="15">
       <c r="B71" s="40">
-        <v>46</v>
+        <v>35</v>
       </c>
       <c r="C71" s="41"/>
       <c r="D71" s="34"/>
@@ -4312,7 +4557,7 @@
     </row>
     <row r="72" spans="2:21" s="39" customFormat="1" ht="15">
       <c r="B72" s="40">
-        <v>47</v>
+        <v>36</v>
       </c>
       <c r="C72" s="41"/>
       <c r="D72" s="34"/>
@@ -4338,7 +4583,7 @@
     </row>
     <row r="73" spans="2:21" s="39" customFormat="1" ht="15">
       <c r="B73" s="40">
-        <v>48</v>
+        <v>37</v>
       </c>
       <c r="C73" s="41"/>
       <c r="D73" s="34"/>
@@ -4364,7 +4609,7 @@
     </row>
     <row r="74" spans="2:21" s="39" customFormat="1" ht="15">
       <c r="B74" s="40">
-        <v>49</v>
+        <v>38</v>
       </c>
       <c r="C74" s="41"/>
       <c r="D74" s="34"/>
@@ -4390,7 +4635,7 @@
     </row>
     <row r="75" spans="2:21" s="39" customFormat="1" ht="15">
       <c r="B75" s="40">
-        <v>50</v>
+        <v>39</v>
       </c>
       <c r="C75" s="41"/>
       <c r="D75" s="34"/>
@@ -4416,7 +4661,7 @@
     </row>
     <row r="76" spans="2:21" s="39" customFormat="1" ht="15">
       <c r="B76" s="40">
-        <v>51</v>
+        <v>40</v>
       </c>
       <c r="C76" s="41"/>
       <c r="D76" s="34"/>
@@ -4442,7 +4687,7 @@
     </row>
     <row r="77" spans="2:21" s="39" customFormat="1" ht="15">
       <c r="B77" s="40">
-        <v>52</v>
+        <v>41</v>
       </c>
       <c r="C77" s="41"/>
       <c r="D77" s="34"/>
@@ -4468,7 +4713,7 @@
     </row>
     <row r="78" spans="2:21" s="39" customFormat="1" ht="15">
       <c r="B78" s="40">
-        <v>53</v>
+        <v>42</v>
       </c>
       <c r="C78" s="41"/>
       <c r="D78" s="34"/>
@@ -4494,7 +4739,7 @@
     </row>
     <row r="79" spans="2:21" s="39" customFormat="1" ht="15">
       <c r="B79" s="40">
-        <v>54</v>
+        <v>43</v>
       </c>
       <c r="C79" s="41"/>
       <c r="D79" s="34"/>
@@ -4520,7 +4765,7 @@
     </row>
     <row r="80" spans="2:21" s="39" customFormat="1" ht="15">
       <c r="B80" s="40">
-        <v>55</v>
+        <v>44</v>
       </c>
       <c r="C80" s="41"/>
       <c r="D80" s="34"/>
@@ -4546,7 +4791,7 @@
     </row>
     <row r="81" spans="2:21" s="39" customFormat="1" ht="15">
       <c r="B81" s="40">
-        <v>56</v>
+        <v>45</v>
       </c>
       <c r="C81" s="41"/>
       <c r="D81" s="34"/>
@@ -4572,7 +4817,7 @@
     </row>
     <row r="82" spans="2:21" s="39" customFormat="1" ht="15">
       <c r="B82" s="40">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="C82" s="41"/>
       <c r="D82" s="34"/>
@@ -4598,7 +4843,7 @@
     </row>
     <row r="83" spans="2:21" s="39" customFormat="1" ht="15">
       <c r="B83" s="40">
-        <v>58</v>
+        <v>47</v>
       </c>
       <c r="C83" s="41"/>
       <c r="D83" s="34"/>
@@ -4624,7 +4869,7 @@
     </row>
     <row r="84" spans="2:21" s="39" customFormat="1" ht="15">
       <c r="B84" s="40">
-        <v>59</v>
+        <v>48</v>
       </c>
       <c r="C84" s="41"/>
       <c r="D84" s="34"/>
@@ -4650,7 +4895,7 @@
     </row>
     <row r="85" spans="2:21" s="39" customFormat="1" ht="15">
       <c r="B85" s="40">
-        <v>60</v>
+        <v>49</v>
       </c>
       <c r="C85" s="41"/>
       <c r="D85" s="34"/>
@@ -4674,34 +4919,320 @@
         <v>0</v>
       </c>
     </row>
-    <row r="86" spans="2:21" s="39" customFormat="1" ht="15.5" thickBot="1">
-      <c r="B86" s="43">
+    <row r="86" spans="2:21" s="39" customFormat="1" ht="15">
+      <c r="B86" s="40">
+        <v>50</v>
+      </c>
+      <c r="C86" s="41"/>
+      <c r="D86" s="34"/>
+      <c r="E86" s="35"/>
+      <c r="F86" s="36"/>
+      <c r="G86" s="36"/>
+      <c r="H86" s="36"/>
+      <c r="I86" s="36"/>
+      <c r="J86" s="36"/>
+      <c r="K86" s="36"/>
+      <c r="L86" s="36"/>
+      <c r="M86" s="36"/>
+      <c r="N86" s="35"/>
+      <c r="O86" s="34"/>
+      <c r="P86" s="37"/>
+      <c r="Q86" s="36"/>
+      <c r="R86" s="36"/>
+      <c r="S86" s="36"/>
+      <c r="T86" s="38"/>
+      <c r="U86" s="36" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="2:21" s="39" customFormat="1" ht="15">
+      <c r="B87" s="40">
+        <v>51</v>
+      </c>
+      <c r="C87" s="41"/>
+      <c r="D87" s="34"/>
+      <c r="E87" s="35"/>
+      <c r="F87" s="36"/>
+      <c r="G87" s="36"/>
+      <c r="H87" s="36"/>
+      <c r="I87" s="36"/>
+      <c r="J87" s="36"/>
+      <c r="K87" s="36"/>
+      <c r="L87" s="36"/>
+      <c r="M87" s="36"/>
+      <c r="N87" s="35"/>
+      <c r="O87" s="34"/>
+      <c r="P87" s="37"/>
+      <c r="Q87" s="36"/>
+      <c r="R87" s="36"/>
+      <c r="S87" s="36"/>
+      <c r="T87" s="38"/>
+      <c r="U87" s="36" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="2:21" s="39" customFormat="1" ht="15">
+      <c r="B88" s="40">
+        <v>52</v>
+      </c>
+      <c r="C88" s="41"/>
+      <c r="D88" s="34"/>
+      <c r="E88" s="35"/>
+      <c r="F88" s="36"/>
+      <c r="G88" s="36"/>
+      <c r="H88" s="36"/>
+      <c r="I88" s="36"/>
+      <c r="J88" s="36"/>
+      <c r="K88" s="36"/>
+      <c r="L88" s="36"/>
+      <c r="M88" s="36"/>
+      <c r="N88" s="35"/>
+      <c r="O88" s="34"/>
+      <c r="P88" s="37"/>
+      <c r="Q88" s="36"/>
+      <c r="R88" s="36"/>
+      <c r="S88" s="36"/>
+      <c r="T88" s="38"/>
+      <c r="U88" s="36" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="2:21" s="39" customFormat="1" ht="15">
+      <c r="B89" s="40">
+        <v>53</v>
+      </c>
+      <c r="C89" s="41"/>
+      <c r="D89" s="34"/>
+      <c r="E89" s="35"/>
+      <c r="F89" s="36"/>
+      <c r="G89" s="36"/>
+      <c r="H89" s="36"/>
+      <c r="I89" s="36"/>
+      <c r="J89" s="36"/>
+      <c r="K89" s="36"/>
+      <c r="L89" s="36"/>
+      <c r="M89" s="36"/>
+      <c r="N89" s="35"/>
+      <c r="O89" s="34"/>
+      <c r="P89" s="37"/>
+      <c r="Q89" s="36"/>
+      <c r="R89" s="36"/>
+      <c r="S89" s="36"/>
+      <c r="T89" s="38"/>
+      <c r="U89" s="36" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="2:21" s="39" customFormat="1" ht="15">
+      <c r="B90" s="40">
+        <v>54</v>
+      </c>
+      <c r="C90" s="41"/>
+      <c r="D90" s="34"/>
+      <c r="E90" s="35"/>
+      <c r="F90" s="36"/>
+      <c r="G90" s="36"/>
+      <c r="H90" s="36"/>
+      <c r="I90" s="36"/>
+      <c r="J90" s="36"/>
+      <c r="K90" s="36"/>
+      <c r="L90" s="36"/>
+      <c r="M90" s="36"/>
+      <c r="N90" s="35"/>
+      <c r="O90" s="34"/>
+      <c r="P90" s="37"/>
+      <c r="Q90" s="36"/>
+      <c r="R90" s="36"/>
+      <c r="S90" s="36"/>
+      <c r="T90" s="38"/>
+      <c r="U90" s="36" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="91" spans="2:21" s="39" customFormat="1" ht="15">
+      <c r="B91" s="40">
+        <v>55</v>
+      </c>
+      <c r="C91" s="41"/>
+      <c r="D91" s="34"/>
+      <c r="E91" s="35"/>
+      <c r="F91" s="36"/>
+      <c r="G91" s="36"/>
+      <c r="H91" s="36"/>
+      <c r="I91" s="36"/>
+      <c r="J91" s="36"/>
+      <c r="K91" s="36"/>
+      <c r="L91" s="36"/>
+      <c r="M91" s="36"/>
+      <c r="N91" s="35"/>
+      <c r="O91" s="34"/>
+      <c r="P91" s="37"/>
+      <c r="Q91" s="36"/>
+      <c r="R91" s="36"/>
+      <c r="S91" s="36"/>
+      <c r="T91" s="38"/>
+      <c r="U91" s="36" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="2:21" s="39" customFormat="1" ht="15">
+      <c r="B92" s="40">
+        <v>56</v>
+      </c>
+      <c r="C92" s="41"/>
+      <c r="D92" s="34"/>
+      <c r="E92" s="35"/>
+      <c r="F92" s="36"/>
+      <c r="G92" s="36"/>
+      <c r="H92" s="36"/>
+      <c r="I92" s="36"/>
+      <c r="J92" s="36"/>
+      <c r="K92" s="36"/>
+      <c r="L92" s="36"/>
+      <c r="M92" s="36"/>
+      <c r="N92" s="35"/>
+      <c r="O92" s="34"/>
+      <c r="P92" s="37"/>
+      <c r="Q92" s="36"/>
+      <c r="R92" s="36"/>
+      <c r="S92" s="36"/>
+      <c r="T92" s="38"/>
+      <c r="U92" s="36" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="2:21" s="39" customFormat="1" ht="15">
+      <c r="B93" s="40">
+        <v>57</v>
+      </c>
+      <c r="C93" s="41"/>
+      <c r="D93" s="34"/>
+      <c r="E93" s="35"/>
+      <c r="F93" s="36"/>
+      <c r="G93" s="36"/>
+      <c r="H93" s="36"/>
+      <c r="I93" s="36"/>
+      <c r="J93" s="36"/>
+      <c r="K93" s="36"/>
+      <c r="L93" s="36"/>
+      <c r="M93" s="36"/>
+      <c r="N93" s="35"/>
+      <c r="O93" s="34"/>
+      <c r="P93" s="37"/>
+      <c r="Q93" s="36"/>
+      <c r="R93" s="36"/>
+      <c r="S93" s="36"/>
+      <c r="T93" s="38"/>
+      <c r="U93" s="36" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="2:21" s="39" customFormat="1" ht="15">
+      <c r="B94" s="40">
+        <v>58</v>
+      </c>
+      <c r="C94" s="41"/>
+      <c r="D94" s="34"/>
+      <c r="E94" s="35"/>
+      <c r="F94" s="36"/>
+      <c r="G94" s="36"/>
+      <c r="H94" s="36"/>
+      <c r="I94" s="36"/>
+      <c r="J94" s="36"/>
+      <c r="K94" s="36"/>
+      <c r="L94" s="36"/>
+      <c r="M94" s="36"/>
+      <c r="N94" s="35"/>
+      <c r="O94" s="34"/>
+      <c r="P94" s="37"/>
+      <c r="Q94" s="36"/>
+      <c r="R94" s="36"/>
+      <c r="S94" s="36"/>
+      <c r="T94" s="38"/>
+      <c r="U94" s="36" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="2:21" s="39" customFormat="1" ht="15">
+      <c r="B95" s="40">
+        <v>59</v>
+      </c>
+      <c r="C95" s="41"/>
+      <c r="D95" s="34"/>
+      <c r="E95" s="35"/>
+      <c r="F95" s="36"/>
+      <c r="G95" s="36"/>
+      <c r="H95" s="36"/>
+      <c r="I95" s="36"/>
+      <c r="J95" s="36"/>
+      <c r="K95" s="36"/>
+      <c r="L95" s="36"/>
+      <c r="M95" s="36"/>
+      <c r="N95" s="35"/>
+      <c r="O95" s="34"/>
+      <c r="P95" s="37"/>
+      <c r="Q95" s="36"/>
+      <c r="R95" s="36"/>
+      <c r="S95" s="36"/>
+      <c r="T95" s="38"/>
+      <c r="U95" s="36" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="96" spans="2:21" s="39" customFormat="1" ht="15">
+      <c r="B96" s="40">
+        <v>60</v>
+      </c>
+      <c r="C96" s="41"/>
+      <c r="D96" s="34"/>
+      <c r="E96" s="35"/>
+      <c r="F96" s="36"/>
+      <c r="G96" s="36"/>
+      <c r="H96" s="36"/>
+      <c r="I96" s="36"/>
+      <c r="J96" s="36"/>
+      <c r="K96" s="36"/>
+      <c r="L96" s="36"/>
+      <c r="M96" s="36"/>
+      <c r="N96" s="35"/>
+      <c r="O96" s="34"/>
+      <c r="P96" s="37"/>
+      <c r="Q96" s="36"/>
+      <c r="R96" s="36"/>
+      <c r="S96" s="36"/>
+      <c r="T96" s="38"/>
+      <c r="U96" s="36" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="2:21" s="39" customFormat="1" ht="15.5" thickBot="1">
+      <c r="B97" s="43">
         <v>61</v>
       </c>
-      <c r="C86" s="44"/>
-      <c r="D86" s="45"/>
-      <c r="E86" s="46"/>
-      <c r="F86" s="47"/>
-      <c r="G86" s="47"/>
-      <c r="H86" s="47"/>
-      <c r="I86" s="47"/>
-      <c r="J86" s="47"/>
-      <c r="K86" s="47"/>
-      <c r="L86" s="47"/>
-      <c r="M86" s="47"/>
-      <c r="N86" s="46"/>
-      <c r="O86" s="45"/>
-      <c r="P86" s="48"/>
-      <c r="Q86" s="47"/>
-      <c r="R86" s="47"/>
-      <c r="S86" s="47"/>
-      <c r="T86" s="49"/>
-      <c r="U86" s="36" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="87" spans="2:21">
-      <c r="N87" s="12"/>
+      <c r="C97" s="44"/>
+      <c r="D97" s="45"/>
+      <c r="E97" s="46"/>
+      <c r="F97" s="47"/>
+      <c r="G97" s="47"/>
+      <c r="H97" s="47"/>
+      <c r="I97" s="47"/>
+      <c r="J97" s="47"/>
+      <c r="K97" s="47"/>
+      <c r="L97" s="47"/>
+      <c r="M97" s="47"/>
+      <c r="N97" s="46"/>
+      <c r="O97" s="45"/>
+      <c r="P97" s="48"/>
+      <c r="Q97" s="47"/>
+      <c r="R97" s="47"/>
+      <c r="S97" s="47"/>
+      <c r="T97" s="49"/>
+      <c r="U97" s="36" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="2:21">
+      <c r="N98" s="12"/>
     </row>
   </sheetData>
   <mergeCells count="6">
@@ -4714,13 +5245,13 @@
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <dataValidations count="3">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I27:I86 I8:I25" xr:uid="{00000000-0002-0000-0100-000001000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I38:I97 I8:I36" xr:uid="{00000000-0002-0000-0100-000001000000}">
       <formula1>"Máxima,Alta,Média,Baixa,Mínima"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H27:H86 H8:H25" xr:uid="{00000000-0002-0000-0100-000002000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H38:H97 H8:H36" xr:uid="{00000000-0002-0000-0100-000002000000}">
       <formula1>$T$1:$T$6</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="U8:U86" xr:uid="{00000000-0002-0000-0100-000000000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="U8:U97" xr:uid="{00000000-0002-0000-0100-000000000000}">
       <formula1>"Proposto,Aprovado,Projetado,Implementado,Verificado, Entregue, Eliminado, Rejeitado"</formula1>
     </dataValidation>
   </dataValidations>
